--- a/Employee_Reports35/Mohamed Ahthir Abdul Majeed Q0570.xlsx
+++ b/Employee_Reports35/Mohamed Ahthir Abdul Majeed Q0570.xlsx
@@ -35,7 +35,7 @@
       <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -46,12 +46,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="001F4E78"/>
         <bgColor rgb="001F4E78"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFC7CE"/>
-        <bgColor rgb="00FFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -73,7 +67,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -82,9 +76,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -452,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,15 +452,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="4" customWidth="1" min="1" max="1"/>
-    <col width="73" customWidth="1" min="2" max="2"/>
-    <col width="19" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="32" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="16" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="18" customWidth="1" min="8" max="8"/>
     <col width="13" customWidth="1" min="9" max="9"/>
-    <col width="11" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="9" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -572,11 +563,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +612,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +661,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +710,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +759,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +808,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +857,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -879,620 +870,6 @@
         </is>
       </c>
       <c r="K9" s="3" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t>LOTO (SOPs)</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>ELECTRICAL SAFETY</t>
-        </is>
-      </c>
-      <c r="D10" s="4" t="inlineStr">
-        <is>
-          <t>LSME-OHS-SOP-021</t>
-        </is>
-      </c>
-      <c r="E10" s="4" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
-      <c r="F10" s="4" t="inlineStr">
-        <is>
-          <t>25-Aug-2024</t>
-        </is>
-      </c>
-      <c r="G10" s="4" t="inlineStr">
-        <is>
-          <t>25-Aug-2025</t>
-        </is>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>-70</v>
-      </c>
-      <c r="I10" s="4" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J10" s="4" t="inlineStr">
-        <is>
-          <t>NOT VALID</t>
-        </is>
-      </c>
-      <c r="K10" s="4" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="inlineStr">
-        <is>
-          <t>Equipment Operation Procedure
-(SOP-031) (SOPs)</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D11" s="4" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-031</t>
-        </is>
-      </c>
-      <c r="E11" s="4" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
-      <c r="F11" s="4" t="inlineStr">
-        <is>
-          <t>06-Jun-2024</t>
-        </is>
-      </c>
-      <c r="G11" s="4" t="inlineStr">
-        <is>
-          <t>06-Jun-2025</t>
-        </is>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>-150</v>
-      </c>
-      <c r="I11" s="4" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J11" s="4" t="inlineStr">
-        <is>
-          <t>NOT VALID</t>
-        </is>
-      </c>
-      <c r="K11" s="4" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="inlineStr">
-        <is>
-          <t>Equipment  Request &amp;handover procedure(SOP-028) (SOPs)</t>
-        </is>
-      </c>
-      <c r="C12" s="4" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D12" s="4" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-028</t>
-        </is>
-      </c>
-      <c r="E12" s="4" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
-      <c r="F12" s="4" t="inlineStr">
-        <is>
-          <t>14-May-2024</t>
-        </is>
-      </c>
-      <c r="G12" s="4" t="inlineStr">
-        <is>
-          <t>14-May-2025</t>
-        </is>
-      </c>
-      <c r="H12" s="4" t="n">
-        <v>-173</v>
-      </c>
-      <c r="I12" s="4" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J12" s="4" t="inlineStr">
-        <is>
-          <t>NOT VALID</t>
-        </is>
-      </c>
-      <c r="K12" s="4" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4" t="inlineStr">
-        <is>
-          <t>STACKER CRANE AISLE MONTHLY PREVENTIVE MAINTENANCE (SOPs)</t>
-        </is>
-      </c>
-      <c r="C13" s="4" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D13" s="4" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-035</t>
-        </is>
-      </c>
-      <c r="E13" s="4" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
-      <c r="F13" s="4" t="inlineStr">
-        <is>
-          <t>14-Aug-2024</t>
-        </is>
-      </c>
-      <c r="G13" s="4" t="inlineStr">
-        <is>
-          <t>14-Aug-2025</t>
-        </is>
-      </c>
-      <c r="H13" s="4" t="n">
-        <v>-81</v>
-      </c>
-      <c r="I13" s="4" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J13" s="4" t="inlineStr">
-        <is>
-          <t>NOT VALID</t>
-        </is>
-      </c>
-      <c r="K13" s="4" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4" t="inlineStr">
-        <is>
-          <t>Endangered by Electricity A safety Training (SOPs)</t>
-        </is>
-      </c>
-      <c r="C14" s="4" t="inlineStr"/>
-      <c r="D14" s="4" t="inlineStr"/>
-      <c r="E14" s="4" t="inlineStr"/>
-      <c r="F14" s="4" t="inlineStr">
-        <is>
-          <t>14-Aug-2024</t>
-        </is>
-      </c>
-      <c r="G14" s="4" t="inlineStr">
-        <is>
-          <t>14-Aug-2025</t>
-        </is>
-      </c>
-      <c r="H14" s="4" t="n">
-        <v>-81</v>
-      </c>
-      <c r="I14" s="4" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J14" s="4" t="inlineStr">
-        <is>
-          <t>NOT VALID</t>
-        </is>
-      </c>
-      <c r="K14" s="4" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>Contigency Plan During Heavy Rainfall (SOPs)</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>IMS</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>LSME-IMS-SOP-018</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>19-Feb-2025</t>
-        </is>
-      </c>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t>19-Feb-2026</t>
-        </is>
-      </c>
-      <c r="H15" s="3" t="n">
-        <v>108</v>
-      </c>
-      <c r="I15" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J15" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K15" s="3" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>Stacker Crane Aisle Annual Maintenance And Megger Test Procedure (SOPs)</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-003</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
-      <c r="F16" s="3" t="inlineStr">
-        <is>
-          <t>12-Jun-2025</t>
-        </is>
-      </c>
-      <c r="G16" s="3" t="inlineStr">
-        <is>
-          <t>12-Jun-2026</t>
-        </is>
-      </c>
-      <c r="H16" s="3" t="n">
-        <v>221</v>
-      </c>
-      <c r="I16" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J16" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K16" s="3" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>Replacement of Stacker Crane Driven Wheel (SOPs)</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-009</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>27-Jul-2025</t>
-        </is>
-      </c>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>27-Jul-2026</t>
-        </is>
-      </c>
-      <c r="H17" s="3" t="n">
-        <v>266</v>
-      </c>
-      <c r="I17" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J17" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K17" s="3" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>Replacement of Stacker Crane Fork Flyer Chain (SOPs)</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-010</t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
-      <c r="F18" s="3" t="inlineStr">
-        <is>
-          <t>27-Jul-2025</t>
-        </is>
-      </c>
-      <c r="G18" s="3" t="inlineStr">
-        <is>
-          <t>27-Jul-2026</t>
-        </is>
-      </c>
-      <c r="H18" s="3" t="n">
-        <v>266</v>
-      </c>
-      <c r="I18" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J18" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K18" s="3" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>Replacement of Stacker Crane Wire Rope (SOPs)</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-001</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
-      <c r="F19" s="3" t="inlineStr">
-        <is>
-          <t>27-Jul-2025</t>
-        </is>
-      </c>
-      <c r="G19" s="3" t="inlineStr">
-        <is>
-          <t>27-Jul-2026</t>
-        </is>
-      </c>
-      <c r="H19" s="3" t="n">
-        <v>266</v>
-      </c>
-      <c r="I19" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J19" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K19" s="3" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Replacing Bearings Of ULD Hoist Counterweight Pulley (SOPs)</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-011</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
-      <c r="F20" s="3" t="inlineStr">
-        <is>
-          <t>14-Sep-2025</t>
-        </is>
-      </c>
-      <c r="G20" s="3" t="inlineStr">
-        <is>
-          <t>14-Sep-2026</t>
-        </is>
-      </c>
-      <c r="H20" s="3" t="n">
-        <v>315</v>
-      </c>
-      <c r="I20" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J20" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K20" s="3" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>Overload and Load Testing Procedure In ULD Hoist (SOPs)</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-018</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
-      <c r="F21" s="3" t="inlineStr">
-        <is>
-          <t>14-Sep-2025</t>
-        </is>
-      </c>
-      <c r="G21" s="3" t="inlineStr">
-        <is>
-          <t>14-Sep-2026</t>
-        </is>
-      </c>
-      <c r="H21" s="3" t="n">
-        <v>315</v>
-      </c>
-      <c r="I21" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J21" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K21" s="3" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>ULD Hoist Drve Motor Replacement (SOPs)</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr"/>
-      <c r="D22" s="3" t="inlineStr"/>
-      <c r="E22" s="3" t="inlineStr"/>
-      <c r="F22" s="3" t="inlineStr">
-        <is>
-          <t>31-Aug-2025</t>
-        </is>
-      </c>
-      <c r="G22" s="3" t="inlineStr">
-        <is>
-          <t>31-Aug-2026</t>
-        </is>
-      </c>
-      <c r="H22" s="3" t="n">
-        <v>301</v>
-      </c>
-      <c r="I22" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J22" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K22" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Employee_Reports35/Mohamed Ahthir Abdul Majeed Q0570.xlsx
+++ b/Employee_Reports35/Mohamed Ahthir Abdul Majeed Q0570.xlsx
@@ -563,11 +563,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -612,11 +612,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -661,11 +661,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -710,11 +710,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -759,11 +759,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -808,11 +808,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -857,11 +857,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
